--- a/Project1/s04_2.xlsx
+++ b/Project1/s04_2.xlsx
@@ -386,2382 +386,2382 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>28961954.3024476</v>
+        <v>10391536.78296922</v>
       </c>
       <c r="B2">
-        <v>13161653.69908695</v>
+        <v>-3245293.740274142</v>
       </c>
       <c r="C2">
-        <v>44762254.90580824</v>
+        <v>24028367.30621257</v>
       </c>
       <c r="D2">
-        <v>4797479.801311661</v>
+        <v>-10464195.75829254</v>
       </c>
       <c r="E2">
-        <v>53126428.80358353</v>
+        <v>31247269.32423097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>36069155.88620045</v>
+        <v>11857529.31496895</v>
       </c>
       <c r="B3">
-        <v>18417358.37908525</v>
+        <v>-3314779.032990418</v>
       </c>
       <c r="C3">
-        <v>53720953.39331565</v>
+        <v>27029837.66292833</v>
       </c>
       <c r="D3">
-        <v>9073061.225243442</v>
+        <v>-11346513.91188304</v>
       </c>
       <c r="E3">
-        <v>63065250.54715746</v>
+        <v>35061572.54182096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>32525275.59281915</v>
+        <v>12772459.52800481</v>
       </c>
       <c r="B4">
-        <v>13184198.19853407</v>
+        <v>-3006906.884282362</v>
       </c>
       <c r="C4">
-        <v>51866352.98710422</v>
+        <v>28551825.94029199</v>
       </c>
       <c r="D4">
-        <v>2945650.29003904</v>
+        <v>-11359998.89070993</v>
       </c>
       <c r="E4">
-        <v>62104900.89559925</v>
+        <v>36904917.94671956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>33437534.63063536</v>
+        <v>13282942.25826537</v>
       </c>
       <c r="B5">
-        <v>12529977.81253597</v>
+        <v>-2748856.725551665</v>
       </c>
       <c r="C5">
-        <v>54345091.44873475</v>
+        <v>29314741.24208241</v>
       </c>
       <c r="D5">
-        <v>1462185.787933242</v>
+        <v>-11235578.46338379</v>
       </c>
       <c r="E5">
-        <v>65412883.47333747</v>
+        <v>37801462.97991453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>42012014.33140612</v>
+        <v>13573941.43766635</v>
       </c>
       <c r="B6">
-        <v>19634918.86416329</v>
+        <v>-2582371.081443552</v>
       </c>
       <c r="C6">
-        <v>64389109.79864895</v>
+        <v>29730253.95677626</v>
       </c>
       <c r="D6">
-        <v>7789200.069716498</v>
+        <v>-11135006.30332641</v>
       </c>
       <c r="E6">
-        <v>76234828.59309575</v>
+        <v>38282889.17865911</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>45454351.06430597</v>
+        <v>13739119.5946187</v>
       </c>
       <c r="B7">
-        <v>21686617.52821179</v>
+        <v>-2489208.84331199</v>
       </c>
       <c r="C7">
-        <v>69222084.60040015</v>
+        <v>29967448.03254939</v>
       </c>
       <c r="D7">
-        <v>9104739.408146523</v>
+        <v>-11079966.98978635</v>
       </c>
       <c r="E7">
-        <v>81803962.72046542</v>
+        <v>38558206.17902375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>40696236.74295971</v>
+        <v>13832957.47701089</v>
       </c>
       <c r="B8">
-        <v>15603594.91100033</v>
+        <v>-2444035.46239314</v>
       </c>
       <c r="C8">
-        <v>65788878.57491909</v>
+        <v>30109950.41641492</v>
       </c>
       <c r="D8">
-        <v>2320352.705313511</v>
+        <v>-11060555.0398168</v>
       </c>
       <c r="E8">
-        <v>79072120.78060591</v>
+        <v>38726469.99383858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>40607488.31639711</v>
+        <v>13886258.03672925</v>
       </c>
       <c r="B9">
-        <v>14245708.67484634</v>
+        <v>-2428175.209042083</v>
       </c>
       <c r="C9">
-        <v>66969267.95794788</v>
+        <v>30200691.28250058</v>
       </c>
       <c r="D9">
-        <v>290625.4956146106</v>
+        <v>-11064514.48743874</v>
       </c>
       <c r="E9">
-        <v>80924351.13717961</v>
+        <v>38837030.56089724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>40009254.69382025</v>
+        <v>13916534.1104906</v>
       </c>
       <c r="B10">
-        <v>12426363.49188606</v>
+        <v>-2429610.171763295</v>
       </c>
       <c r="C10">
-        <v>67592145.89575443</v>
+        <v>30262678.39274449</v>
       </c>
       <c r="D10">
-        <v>-2175137.10028135</v>
+        <v>-11082736.25885918</v>
       </c>
       <c r="E10">
-        <v>82193646.48792183</v>
+        <v>38915804.47984037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>40774267.57992613</v>
+        <v>13933731.57943457</v>
       </c>
       <c r="B11">
-        <v>12012130.45491254</v>
+        <v>-2441067.592353798</v>
       </c>
       <c r="C11">
-        <v>69536404.70493972</v>
+        <v>30308530.75122295</v>
       </c>
       <c r="D11">
-        <v>-3213625.220527194</v>
+        <v>-11109362.66168012</v>
       </c>
       <c r="E11">
-        <v>84762160.38037947</v>
+        <v>38976825.82054926</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>40902007.87592544</v>
+        <v>13943500.12860551</v>
       </c>
       <c r="B12">
-        <v>10997495.92509039</v>
+        <v>-2458271.747457638</v>
       </c>
       <c r="C12">
-        <v>70806519.82676049</v>
+        <v>30345272.00466866</v>
       </c>
       <c r="D12">
-        <v>-4832996.453749739</v>
+        <v>-11140845.30392866</v>
       </c>
       <c r="E12">
-        <v>86637012.20560062</v>
+        <v>39027845.56113969</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>32497931.86494732</v>
+        <v>13949048.88285505</v>
       </c>
       <c r="B13">
-        <v>1483801.69105228</v>
+        <v>-2478747.11032819</v>
       </c>
       <c r="C13">
-        <v>63512062.03884235</v>
+        <v>30376844.87603828</v>
       </c>
       <c r="D13">
-        <v>-14934087.09313472</v>
+        <v>-11175097.00223691</v>
       </c>
       <c r="E13">
-        <v>79929950.82302935</v>
+        <v>39073194.767947</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>39929309.06655885</v>
+        <v>13952200.69943628</v>
       </c>
       <c r="B14">
-        <v>6617505.965766311</v>
+        <v>-2501072.247487228</v>
       </c>
       <c r="C14">
-        <v>73241112.16735138</v>
+        <v>30405473.64635979</v>
       </c>
       <c r="D14">
-        <v>-11016697.3938974</v>
+        <v>-11210908.82403687</v>
       </c>
       <c r="E14">
-        <v>90875315.52701509</v>
+        <v>39115310.22290944</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>47036510.6503117</v>
+        <v>13953991.00176678</v>
       </c>
       <c r="B15">
-        <v>12708179.07062927</v>
+        <v>-2524434.740522115</v>
       </c>
       <c r="C15">
-        <v>81364842.22999413</v>
+        <v>30432416.74405567</v>
       </c>
       <c r="D15">
-        <v>-5464141.960521504</v>
+        <v>-11247586.40263453</v>
       </c>
       <c r="E15">
-        <v>99537163.26114491</v>
+        <v>39155568.40616809</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>43492630.3569304</v>
+        <v>13955007.93354507</v>
       </c>
       <c r="B16">
-        <v>8168742.863477238</v>
+        <v>-2548371.470891794</v>
       </c>
       <c r="C16">
-        <v>78816517.85038355</v>
+        <v>30458387.33798194</v>
       </c>
       <c r="D16">
-        <v>-10530593.63382017</v>
+        <v>-11284732.8038093</v>
       </c>
       <c r="E16">
-        <v>97515854.34768096</v>
+        <v>39194748.67089945</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>44404889.39474661</v>
+        <v>13955585.57354681</v>
       </c>
       <c r="B17">
-        <v>8104658.872483693</v>
+        <v>-2572618.848975278</v>
       </c>
       <c r="C17">
-        <v>80705119.91700953</v>
+        <v>30483789.9960689</v>
       </c>
       <c r="D17">
-        <v>-11111522.40402687</v>
+        <v>-11322121.75264468</v>
       </c>
       <c r="E17">
-        <v>99921301.19352008</v>
+        <v>39233292.8997383</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>52979369.09551738</v>
+        <v>13955913.68599128</v>
       </c>
       <c r="B18">
-        <v>15720464.81305878</v>
+        <v>-2597027.001913995</v>
       </c>
       <c r="C18">
-        <v>90238273.37797597</v>
+        <v>30508854.37389655</v>
       </c>
       <c r="D18">
-        <v>-4003207.696865737</v>
+        <v>-11359624.49349285</v>
       </c>
       <c r="E18">
-        <v>109961945.8879005</v>
+        <v>39271451.8654754</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>56421705.82841722</v>
+        <v>13956100.06120056</v>
       </c>
       <c r="B19">
-        <v>18220434.39595046</v>
+        <v>-2621510.783781366</v>
       </c>
       <c r="C19">
-        <v>94622977.26088399</v>
+        <v>30533710.90618249</v>
       </c>
       <c r="D19">
-        <v>-2002097.149386503</v>
+        <v>-11397167.86764612</v>
       </c>
       <c r="E19">
-        <v>114845508.806221</v>
+        <v>39309367.99004725</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>51663591.50707096</v>
+        <v>13956205.92648919</v>
       </c>
       <c r="B20">
-        <v>12535049.7187662</v>
+        <v>-2646021.863940896</v>
       </c>
       <c r="C20">
-        <v>90792133.29537572</v>
+        <v>30558433.71691927</v>
       </c>
       <c r="D20">
-        <v>-8178349.101895347</v>
+        <v>-11434710.37155696</v>
       </c>
       <c r="E20">
-        <v>111505532.1160373</v>
+        <v>39347122.22453533</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>51574843.08050835</v>
+        <v>13956266.06034164</v>
       </c>
       <c r="B21">
-        <v>11533048.00433002</v>
+        <v>-2670532.842684193</v>
       </c>
       <c r="C21">
-        <v>91616638.15668668</v>
+        <v>30583064.96336747</v>
       </c>
       <c r="D21">
-        <v>-9663797.904095464</v>
+        <v>-11472228.51160508</v>
       </c>
       <c r="E21">
-        <v>112813484.0651122</v>
+        <v>39384760.63228836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>50976609.4579315</v>
+        <v>13956300.2177152</v>
       </c>
       <c r="B22">
-        <v>10034609.93770098</v>
+        <v>-2695028.217357337</v>
       </c>
       <c r="C22">
-        <v>91918608.97816202</v>
+        <v>30607628.65278774</v>
       </c>
       <c r="D22">
-        <v>-11638775.41782852</v>
+        <v>-11509709.03617</v>
       </c>
       <c r="E22">
-        <v>113591994.3336915</v>
+        <v>39422309.4716004</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>51741622.34403738</v>
+        <v>13956319.61986758</v>
       </c>
       <c r="B23">
-        <v>9911595.184331656</v>
+        <v>-2719499.246429276</v>
       </c>
       <c r="C23">
-        <v>93571649.5037431</v>
+        <v>30632138.48616444</v>
       </c>
       <c r="D23">
-        <v>-12231883.60733295</v>
+        <v>-11547144.51640865</v>
       </c>
       <c r="E23">
-        <v>115715128.2954077</v>
+        <v>39459783.75614382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>51869362.64003669</v>
+        <v>13956330.64072422</v>
       </c>
       <c r="B24">
-        <v>9162696.068515807</v>
+        <v>-2743941.03022488</v>
       </c>
       <c r="C24">
-        <v>94576029.21155757</v>
+        <v>30656602.31167331</v>
       </c>
       <c r="D24">
-        <v>-13444847.59571876</v>
+        <v>-11584530.83306689</v>
       </c>
       <c r="E24">
-        <v>117183572.8757921</v>
+        <v>39497192.11451532</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>43465286.62905856</v>
+        <v>13956336.90081736</v>
       </c>
       <c r="B25">
-        <v>-107346.8861364573</v>
+        <v>-2768350.851810722</v>
       </c>
       <c r="C25">
-        <v>87037920.14425357</v>
+        <v>30681024.65344543</v>
       </c>
       <c r="D25">
-        <v>-23173305.75957753</v>
+        <v>-11621865.7475476</v>
       </c>
       <c r="E25">
-        <v>110103879.0176946</v>
+        <v>39534539.54918231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>50896663.8306701</v>
+        <v>13956340.45669031</v>
       </c>
       <c r="B26">
-        <v>5544539.233384542</v>
+        <v>-2792727.234132877</v>
       </c>
       <c r="C26">
-        <v>96248788.42795566</v>
+        <v>30705408.1475135</v>
       </c>
       <c r="D26">
-        <v>-18463425.31664345</v>
+        <v>-11659148.08956001</v>
       </c>
       <c r="E26">
-        <v>120256752.9779837</v>
+        <v>39571829.00294064</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>58003865.41442294</v>
+        <v>13956342.47650571</v>
       </c>
       <c r="B27">
-        <v>11822145.01635763</v>
+        <v>-2817069.404218623</v>
       </c>
       <c r="C27">
-        <v>104185585.8124883</v>
+        <v>30729754.35723004</v>
       </c>
       <c r="D27">
-        <v>-12624981.02285813</v>
+        <v>-11696377.2953323</v>
       </c>
       <c r="E27">
-        <v>128632711.851704</v>
+        <v>39609062.24834372</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>54459985.12104165</v>
+        <v>13956343.62380604</v>
       </c>
       <c r="B28">
-        <v>7456776.297895461</v>
+        <v>-2841376.988708625</v>
       </c>
       <c r="C28">
-        <v>101463193.9441878</v>
+        <v>30754064.23632071</v>
       </c>
       <c r="D28">
-        <v>-17425219.44506028</v>
+        <v>-11733553.14511882</v>
       </c>
       <c r="E28">
-        <v>126345189.6871436</v>
+        <v>39646240.39273091</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>55372244.15885785</v>
+        <v>13956344.2754983</v>
       </c>
       <c r="B29">
-        <v>7555210.561443567</v>
+        <v>-2865649.840847269</v>
       </c>
       <c r="C29">
-        <v>103189277.7562721</v>
+        <v>30778338.39184387</v>
       </c>
       <c r="D29">
-        <v>-17757597.99357021</v>
+        <v>-11770675.61399873</v>
       </c>
       <c r="E29">
-        <v>128502086.3112859</v>
+        <v>39683364.16499533</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>63946723.85962863</v>
+        <v>13956344.64567408</v>
       </c>
       <c r="B30">
-        <v>15323118.88834053</v>
+        <v>-2889887.942175224</v>
       </c>
       <c r="C30">
-        <v>112570328.8309167</v>
+        <v>30802577.23352339</v>
       </c>
       <c r="D30">
-        <v>-10416662.76050244</v>
+        <v>-11807744.78707417</v>
       </c>
       <c r="E30">
-        <v>138310110.4797597</v>
+        <v>39720434.07842234</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>67389060.59252846</v>
+        <v>13956344.85594221</v>
       </c>
       <c r="B31">
-        <v>17965757.49528414</v>
+        <v>-2914091.346671505</v>
       </c>
       <c r="C31">
-        <v>116812363.6897728</v>
+        <v>30826781.05855592</v>
       </c>
       <c r="D31">
-        <v>-8197358.769724295</v>
+        <v>-11844760.81127474</v>
       </c>
       <c r="E31">
-        <v>142975479.9547812</v>
+        <v>39757450.52315915</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>62630946.27118221</v>
+        <v>13956344.97537921</v>
       </c>
       <c r="B32">
-        <v>12414465.28836358</v>
+        <v>-2938260.149017349</v>
       </c>
       <c r="C32">
-        <v>112847427.2540008</v>
+        <v>30850950.09977577</v>
       </c>
       <c r="D32">
-        <v>-14168533.986048</v>
+        <v>-11881723.86796979</v>
       </c>
       <c r="E32">
-        <v>139430426.5284124</v>
+        <v>39794413.81872821</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>62542197.8446196</v>
+        <v>13956345.0432221</v>
       </c>
       <c r="B33">
-        <v>11538730.76150945</v>
+        <v>-2962394.466567064</v>
       </c>
       <c r="C33">
-        <v>113545664.9277298</v>
+        <v>30875084.55301126</v>
       </c>
       <c r="D33">
-        <v>-15460873.78916949</v>
+        <v>-11918634.15740809</v>
       </c>
       <c r="E33">
-        <v>140545269.4784087</v>
+        <v>39831324.24385229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>61943964.22204275</v>
+        <v>13956345.08175838</v>
       </c>
       <c r="B34">
-        <v>10159396.63700501</v>
+        <v>-2986494.429107685</v>
       </c>
       <c r="C34">
-        <v>113728531.8070805</v>
+        <v>30899184.59262444</v>
       </c>
       <c r="D34">
-        <v>-17253697.54236949</v>
+        <v>-11955491.88988005</v>
       </c>
       <c r="E34">
-        <v>141141625.986455</v>
+        <v>39868182.05339681</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>62708977.10814863</v>
+        <v>13956345.10364784</v>
       </c>
       <c r="B35">
-        <v>10148908.68126182</v>
+        <v>-3010560.173044508</v>
       </c>
       <c r="C35">
-        <v>115269045.5350354</v>
+        <v>30923250.3803402</v>
       </c>
       <c r="D35">
-        <v>-17674710.84582137</v>
+        <v>-11992297.28070128</v>
       </c>
       <c r="E35">
-        <v>143092665.0621186</v>
+        <v>39904987.48799697</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>62836717.40414794</v>
+        <v>13956345.11608155</v>
       </c>
       <c r="B36">
-        <v>9506480.314539373</v>
+        <v>-3034591.838101504</v>
       </c>
       <c r="C36">
-        <v>116166954.4937565</v>
+        <v>30947282.07026461</v>
       </c>
       <c r="D36">
-        <v>-18724841.87512809</v>
+        <v>-12029050.54736785</v>
       </c>
       <c r="E36">
-        <v>144398276.683424</v>
+        <v>39941740.77953096</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>54432641.39316981</v>
+        <v>13956345.12314418</v>
       </c>
       <c r="B37">
-        <v>337317.2026192248</v>
+        <v>-3058589.565450739</v>
       </c>
       <c r="C37">
-        <v>108527965.5837204</v>
+        <v>30971279.81173909</v>
       </c>
       <c r="D37">
-        <v>-28299017.63331793</v>
+        <v>-12065751.90794611</v>
       </c>
       <c r="E37">
-        <v>137164300.4196575</v>
+        <v>39978442.15423446</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>61864018.59478135</v>
+        <v>13956345.1271559</v>
       </c>
       <c r="B38">
-        <v>6228220.091926694</v>
+        <v>-3082553.496653739</v>
       </c>
       <c r="C38">
-        <v>117499817.097636</v>
+        <v>30995243.75096555</v>
       </c>
       <c r="D38">
-        <v>-23223592.58564257</v>
+        <v>-12102401.58016396</v>
       </c>
       <c r="E38">
-        <v>146951629.7752053</v>
+        <v>40015091.83447577</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>68971220.1785342</v>
+        <v>13956345.12943465</v>
       </c>
       <c r="B39">
-        <v>12590262.02968723</v>
+        <v>-3106483.773064194</v>
       </c>
       <c r="C39">
-        <v>125352178.3273812</v>
+        <v>31019174.0319335</v>
       </c>
       <c r="D39">
-        <v>-17256014.33671583</v>
+        <v>-12138999.78090088</v>
       </c>
       <c r="E39">
-        <v>155198454.6937842</v>
+        <v>40051690.03977019</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>65427339.88515288</v>
+        <v>13956345.13072904</v>
       </c>
       <c r="B40">
-        <v>8305306.065035485</v>
+        <v>-3130380.535492739</v>
       </c>
       <c r="C40">
-        <v>122549373.7052703</v>
+        <v>31043070.79695081</v>
       </c>
       <c r="D40">
-        <v>-21933272.06457568</v>
+        <v>-12175546.72590444</v>
       </c>
       <c r="E40">
-        <v>152787951.8348815</v>
+        <v>40088236.98736251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>66339598.9229691</v>
+        <v>13956345.13146427</v>
       </c>
       <c r="B41">
-        <v>8480395.097899348</v>
+        <v>-3154243.924020609</v>
       </c>
       <c r="C41">
-        <v>124198802.7480389</v>
+        <v>31066934.18694916</v>
       </c>
       <c r="D41">
-        <v>-22148417.2600615</v>
+        <v>-12212042.6296355</v>
       </c>
       <c r="E41">
-        <v>154827615.1059997</v>
+        <v>40124732.89256404</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>74914078.62373988</v>
+        <v>13956345.13188191</v>
       </c>
       <c r="B42">
-        <v>16321441.93036398</v>
+        <v>-3178074.077897841</v>
       </c>
       <c r="C42">
-        <v>133506715.3171158</v>
+        <v>31090764.34166165</v>
       </c>
       <c r="D42">
-        <v>-14695626.33530738</v>
+        <v>-12248487.70518647</v>
       </c>
       <c r="E42">
-        <v>164523783.5827872</v>
+        <v>40161177.96895029</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>78356415.35663971</v>
+        <v>13956345.13211913</v>
       </c>
       <c r="B43">
-        <v>19033923.46438631</v>
+        <v>-3201871.135489471</v>
       </c>
       <c r="C43">
-        <v>137678907.2488931</v>
+        <v>31114561.39972773</v>
       </c>
       <c r="D43">
-        <v>-12369506.80520211</v>
+        <v>-12284882.16424106</v>
       </c>
       <c r="E43">
-        <v>169082337.5184816</v>
+        <v>40197572.42847933</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>73598301.03529345</v>
+        <v>13956345.13225388</v>
       </c>
       <c r="B44">
-        <v>13549380.55814022</v>
+        <v>-3225635.234248942</v>
       </c>
       <c r="C44">
-        <v>133647221.5124467</v>
+        <v>31138325.4987567</v>
       </c>
       <c r="D44">
-        <v>-18238597.77549736</v>
+        <v>-12321226.21705742</v>
       </c>
       <c r="E44">
-        <v>165435199.8460842</v>
+        <v>40233916.48156518</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>73509552.60873085</v>
+        <v>13956345.13233042</v>
       </c>
       <c r="B45">
-        <v>12737486.92470246</v>
+        <v>-3249366.510706941</v>
       </c>
       <c r="C45">
-        <v>134281618.2927592</v>
+        <v>31162056.77536778</v>
       </c>
       <c r="D45">
-        <v>-19433301.35764965</v>
+        <v>-12357520.07246463</v>
       </c>
       <c r="E45">
-        <v>166452406.5751114</v>
+        <v>40270210.33712547</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>72911318.98615401</v>
+        <v>13956345.1323739</v>
       </c>
       <c r="B46">
-        <v>11419255.51670656</v>
+        <v>-3273065.100468919</v>
       </c>
       <c r="C46">
-        <v>134403382.4556015</v>
+        <v>31185755.36521671</v>
       </c>
       <c r="D46">
-        <v>-21132676.57008541</v>
+        <v>-12393763.93786667</v>
       </c>
       <c r="E46">
-        <v>166955314.5423934</v>
+        <v>40306454.20261446</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>73676331.87225989</v>
+        <v>13956345.13239859</v>
       </c>
       <c r="B47">
-        <v>11467288.86822021</v>
+        <v>-3296731.138217553</v>
       </c>
       <c r="C47">
-        <v>135885374.8762996</v>
+        <v>31209421.40301473</v>
       </c>
       <c r="D47">
-        <v>-21464189.2575376</v>
+        <v>-12429958.01925045</v>
       </c>
       <c r="E47">
-        <v>168816853.0020574</v>
+        <v>40342648.28404763</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>73804072.16825917</v>
+        <v>13956345.13241262</v>
       </c>
       <c r="B48">
-        <v>10880945.04416836</v>
+        <v>-3320364.75771792</v>
       </c>
       <c r="C48">
-        <v>136727199.29235</v>
+        <v>31233055.02254315</v>
       </c>
       <c r="D48">
-        <v>-22428546.38068309</v>
+        <v>-12466102.52119632</v>
       </c>
       <c r="E48">
-        <v>170036690.7172014</v>
+        <v>40378792.78602156</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>65399996.15728106</v>
+        <v>13956345.13242059</v>
       </c>
       <c r="B49">
-        <v>1765563.411749512</v>
+        <v>-3343966.091824176</v>
       </c>
       <c r="C49">
-        <v>129034428.9028126</v>
+        <v>31256656.35666535</v>
       </c>
       <c r="D49">
-        <v>-31920470.46387848</v>
+        <v>-12502197.64688961</v>
       </c>
       <c r="E49">
-        <v>162720462.7784406</v>
+        <v>40414887.91173079</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>72831373.35889259</v>
+        <v>13956345.13242511</v>
       </c>
       <c r="B50">
-        <v>7796517.539708853</v>
+        <v>-3367535.272487091</v>
       </c>
       <c r="C50">
-        <v>137866229.1780763</v>
+        <v>31280225.53733732</v>
       </c>
       <c r="D50">
-        <v>-26630855.53018691</v>
+        <v>-12538243.59813299</v>
       </c>
       <c r="E50">
-        <v>172293602.2479721</v>
+        <v>40450933.86298322</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>79938574.94264545</v>
+        <v>13956345.13242768</v>
       </c>
       <c r="B51">
-        <v>14205071.95882499</v>
+        <v>-3391072.430761924</v>
       </c>
       <c r="C51">
-        <v>145672077.9264659</v>
+        <v>31303762.69561729</v>
       </c>
       <c r="D51">
-        <v>-20592142.57959107</v>
+        <v>-12574240.57535898</v>
       </c>
       <c r="E51">
-        <v>180469292.464882</v>
+        <v>40486930.84021435</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>76394694.64926413</v>
+        <v>13956345.13242914</v>
       </c>
       <c r="B52">
-        <v>9964821.935389131</v>
+        <v>-3414577.696816569</v>
       </c>
       <c r="C52">
-        <v>142824567.3631391</v>
+        <v>31327267.96167485</v>
       </c>
       <c r="D52">
-        <v>-25201028.4705043</v>
+        <v>-12610188.77764263</v>
       </c>
       <c r="E52">
-        <v>177990417.7690325</v>
+        <v>40522879.04250092</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>77306953.68708035</v>
+        <v>13956345.13242997</v>
       </c>
       <c r="B53">
-        <v>10182899.36583093</v>
+        <v>-3438051.19993972</v>
       </c>
       <c r="C53">
-        <v>144431008.0083298</v>
+        <v>31350741.46479966</v>
       </c>
       <c r="D53">
-        <v>-25350428.58536199</v>
+        <v>-12646088.4027142</v>
       </c>
       <c r="E53">
-        <v>179964335.9595227</v>
+        <v>40558778.66757414</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>85881433.38785113</v>
+        <v>13956345.13243044</v>
       </c>
       <c r="B54">
-        <v>18065300.14455815</v>
+        <v>-3461493.068549039</v>
       </c>
       <c r="C54">
-        <v>153697566.6311441</v>
+        <v>31374183.33340993</v>
       </c>
       <c r="D54">
-        <v>-17834392.25755703</v>
+        <v>-12681939.64697168</v>
       </c>
       <c r="E54">
-        <v>189597259.0332593</v>
+        <v>40594629.91183257</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>89323770.12075096</v>
+        <v>13956345.13243071</v>
       </c>
       <c r="B55">
-        <v>20817578.85486153</v>
+        <v>-3484903.430199279</v>
       </c>
       <c r="C55">
-        <v>157829961.3866404</v>
+        <v>31397593.6950607</v>
       </c>
       <c r="D55">
-        <v>-15447408.19863036</v>
+        <v>-12717742.70549334</v>
       </c>
       <c r="E55">
-        <v>194094948.4401323</v>
+        <v>40630432.97035476</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>84565655.7994047</v>
+        <v>13956345.13243086</v>
       </c>
       <c r="B56">
-        <v>15371349.06894723</v>
+        <v>-3508282.411590347</v>
       </c>
       <c r="C56">
-        <v>153759962.5298622</v>
+        <v>31420972.67645208</v>
       </c>
       <c r="D56">
-        <v>-21257904.30781774</v>
+        <v>-12753497.77204999</v>
       </c>
       <c r="E56">
-        <v>190389215.9066271</v>
+        <v>40666188.03691172</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>84476907.3728421</v>
+        <v>13956345.13243095</v>
       </c>
       <c r="B57">
-        <v>14596352.64658797</v>
+        <v>-3531630.138575288</v>
       </c>
       <c r="C57">
-        <v>154357462.0990962</v>
+        <v>31444320.40343719</v>
       </c>
       <c r="D57">
-        <v>-22396178.475198</v>
+        <v>-12789205.03911729</v>
       </c>
       <c r="E57">
-        <v>191349993.2208822</v>
+        <v>40701895.30397919</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>83878673.75026526</v>
+        <v>13956345.132431</v>
       </c>
       <c r="B58">
-        <v>13313666.48103412</v>
+        <v>-3554946.736168155</v>
       </c>
       <c r="C58">
-        <v>154443681.0194964</v>
+        <v>31467637.00103015</v>
       </c>
       <c r="D58">
-        <v>-24041191.93046282</v>
+        <v>-12824864.69788774</v>
       </c>
       <c r="E58">
-        <v>191798539.4309933</v>
+        <v>40737554.96274974</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>84643686.63637114</v>
+        <v>13956345.13243103</v>
       </c>
       <c r="B59">
-        <v>13395953.16780049</v>
+        <v>-3578232.328551821</v>
       </c>
       <c r="C59">
-        <v>155891420.1049418</v>
+        <v>31490922.59341387</v>
       </c>
       <c r="D59">
-        <v>-24320318.66228853</v>
+        <v>-12860476.93828268</v>
       </c>
       <c r="E59">
-        <v>193607691.9350308</v>
+        <v>40773167.20314474</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>84771426.93237042</v>
+        <v>13956345.13243104</v>
       </c>
       <c r="B60">
-        <v>12842627.25045288</v>
+        <v>-3601487.039085705</v>
       </c>
       <c r="C60">
-        <v>156700226.614288</v>
+        <v>31514177.30394779</v>
       </c>
       <c r="D60">
-        <v>-25234179.25472461</v>
+        <v>-12896041.94896406</v>
       </c>
       <c r="E60">
-        <v>194777033.1194655</v>
+        <v>40808732.21382614</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>76367350.92139231</v>
+        <v>13956345.13243105</v>
       </c>
       <c r="B61">
-        <v>3759081.261164337</v>
+        <v>-3624710.990313375</v>
       </c>
       <c r="C61">
-        <v>148975620.5816203</v>
+        <v>31537401.25517548</v>
       </c>
       <c r="D61">
-        <v>-34677414.92331564</v>
+        <v>-12931559.91734609</v>
       </c>
       <c r="E61">
-        <v>187412116.7661003</v>
+        <v>40844250.18220819</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>83798728.12300384</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B62">
-        <v>9882139.785124719</v>
+        <v>-3647904.303970087</v>
       </c>
       <c r="C62">
-        <v>157715316.460883</v>
+        <v>31560594.5688322</v>
       </c>
       <c r="D62">
-        <v>-29246938.47157572</v>
+        <v>-12967031.02960679</v>
       </c>
       <c r="E62">
-        <v>196844394.7175834</v>
+        <v>40879721.29446889</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>90905929.7067567</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B63">
-        <v>16318599.32109913</v>
+        <v>-3671067.100990236</v>
       </c>
       <c r="C63">
-        <v>165493260.0924143</v>
+        <v>31583757.36585236</v>
       </c>
       <c r="D63">
-        <v>-23165548.32757069</v>
+        <v>-13002455.47069934</v>
       </c>
       <c r="E63">
-        <v>204977407.7410841</v>
+        <v>40915145.73556146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>87362049.41337538</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B64">
-        <v>12105282.27788287</v>
+        <v>-3694199.501514701</v>
       </c>
       <c r="C64">
-        <v>162618816.5488679</v>
+        <v>31606889.76637682</v>
       </c>
       <c r="D64">
-        <v>-27733243.77976418</v>
+        <v>-13037833.42436337</v>
       </c>
       <c r="E64">
-        <v>202457342.6065149</v>
+        <v>40950523.68922549</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>88274308.4511916</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B65">
-        <v>12349359.04246342</v>
+        <v>-3717301.624898117</v>
       </c>
       <c r="C65">
-        <v>164199257.8599198</v>
+        <v>31629991.88976024</v>
       </c>
       <c r="D65">
-        <v>-27842881.34436324</v>
+        <v>-13073165.07313605</v>
       </c>
       <c r="E65">
-        <v>204391498.2467465</v>
+        <v>40985855.33799818</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>96848788.15196239</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B66">
-        <v>20256861.96203871</v>
+        <v>-3740373.589716077</v>
       </c>
       <c r="C66">
-        <v>173440714.341886</v>
+        <v>31653063.8545782</v>
       </c>
       <c r="D66">
-        <v>-20288454.60502918</v>
+        <v>-13108450.59836309</v>
       </c>
       <c r="E66">
-        <v>213986030.908954</v>
+        <v>41021140.86322521</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>100291124.8848622</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B67">
-        <v>23033380.17077541</v>
+        <v>-3763415.513772193</v>
       </c>
       <c r="C67">
-        <v>177548869.598949</v>
+        <v>31676105.77863432</v>
       </c>
       <c r="D67">
-        <v>-17864399.43229801</v>
+        <v>-13143690.18020957</v>
       </c>
       <c r="E67">
-        <v>218446649.2020224</v>
+        <v>41056380.4450717</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>95533010.56351595</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B68">
-        <v>17610560.0147959</v>
+        <v>-3786427.514105175</v>
       </c>
       <c r="C68">
-        <v>173455461.112236</v>
+        <v>31699117.7789673</v>
       </c>
       <c r="D68">
-        <v>-23639093.60202609</v>
+        <v>-13178883.99767075</v>
       </c>
       <c r="E68">
-        <v>214705114.729058</v>
+        <v>41091574.26253287</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>95444262.13695335</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B69">
-        <v>16858174.46590453</v>
+        <v>-3809409.706995696</v>
       </c>
       <c r="C69">
-        <v>174030349.8080022</v>
+        <v>31722099.97185782</v>
       </c>
       <c r="D69">
-        <v>-24742787.42254593</v>
+        <v>-13214032.22858258</v>
       </c>
       <c r="E69">
-        <v>215631311.6964526</v>
+        <v>41126722.4934447</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>94846028.51437651</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B70">
-        <v>15597329.97360504</v>
+        <v>-3832362.207973298</v>
       </c>
       <c r="C70">
-        <v>174094727.055148</v>
+        <v>31745052.47283543</v>
       </c>
       <c r="D70">
-        <v>-26354396.9211604</v>
+        <v>-13249135.04963224</v>
       </c>
       <c r="E70">
-        <v>216046453.9499134</v>
+        <v>41161825.31449436</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>95611041.40048239</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B71">
-        <v>15700717.23183981</v>
+        <v>-3855285.131823156</v>
       </c>
       <c r="C71">
-        <v>175521365.569125</v>
+        <v>31767975.39668528</v>
       </c>
       <c r="D71">
-        <v>-26601253.1137092</v>
+        <v>-13284192.6363685</v>
       </c>
       <c r="E71">
-        <v>217823335.914674</v>
+        <v>41196882.90123063</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>95738781.69648168</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B72">
-        <v>15167777.51530561</v>
+        <v>-3878178.592592757</v>
       </c>
       <c r="C72">
-        <v>176309785.8776577</v>
+        <v>31790868.85745488</v>
       </c>
       <c r="D72">
-        <v>-27483935.7025049</v>
+        <v>-13319205.16321195</v>
       </c>
       <c r="E72">
-        <v>218961499.0954683</v>
+        <v>41231895.42807408</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>87334705.68550356</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B73">
-        <v>6103928.803772107</v>
+        <v>-3901042.703598544</v>
       </c>
       <c r="C73">
-        <v>168565482.567235</v>
+        <v>31813732.96846067</v>
       </c>
       <c r="D73">
-        <v>-36897046.98435155</v>
+        <v>-13354172.80346514</v>
       </c>
       <c r="E73">
-        <v>211566458.3553587</v>
+        <v>41266863.06832726</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>94766082.88711509</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B74">
-        <v>12291805.73219171</v>
+        <v>-3923877.57743245</v>
       </c>
       <c r="C74">
-        <v>177240360.0420385</v>
+        <v>31836567.84229458</v>
       </c>
       <c r="D74">
-        <v>-31367439.33751106</v>
+        <v>-13389095.72932255</v>
       </c>
       <c r="E74">
-        <v>220899605.1117412</v>
+        <v>41301785.99418468</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>101873284.470868</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B75">
-        <v>18745567.08793725</v>
+        <v>-3946683.325968362</v>
       </c>
       <c r="C75">
-        <v>185001001.8537986</v>
+        <v>31859373.59083049</v>
       </c>
       <c r="D75">
-        <v>-25259588.34360336</v>
+        <v>-13423974.11188055</v>
       </c>
       <c r="E75">
-        <v>229006157.2853392</v>
+        <v>41336664.37674268</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>98329404.17748663</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B76">
-        <v>14548968.41013449</v>
+        <v>-3969460.060368519</v>
       </c>
       <c r="C76">
-        <v>182109839.9448388</v>
+        <v>31882150.32523065</v>
       </c>
       <c r="D76">
-        <v>-29801715.26233178</v>
+        <v>-13458808.1211471</v>
       </c>
       <c r="E76">
-        <v>226460523.617305</v>
+        <v>41371498.38600923</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>99241663.21530284</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B77">
-        <v>14809199.5134358</v>
+        <v>-3992207.891089838</v>
       </c>
       <c r="C77">
-        <v>183674126.9171699</v>
+        <v>31904898.15595197</v>
       </c>
       <c r="D77">
-        <v>-29886646.89785394</v>
+        <v>-13493597.92605148</v>
       </c>
       <c r="E77">
-        <v>228369973.3284596</v>
+        <v>41406288.1909136</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>107816142.9160736</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B78">
-        <v>22732311.31557307</v>
+        <v>-4014926.927890152</v>
       </c>
       <c r="C78">
-        <v>192899974.5165742</v>
+        <v>31927617.19275228</v>
       </c>
       <c r="D78">
-        <v>-22308348.4326503</v>
+        <v>-13528343.69445381</v>
       </c>
       <c r="E78">
-        <v>237940634.2647976</v>
+        <v>41441033.95931594</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>111258479.6489735</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B79">
-        <v>25523910.71170017</v>
+        <v>-4037617.279834408</v>
       </c>
       <c r="C79">
-        <v>196993048.5862468</v>
+        <v>31950307.54469654</v>
       </c>
       <c r="D79">
-        <v>-19861228.57417102</v>
+        <v>-13563045.59315453</v>
       </c>
       <c r="E79">
-        <v>242378187.8721179</v>
+        <v>41475735.85801666</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>106500365.3276272</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B80">
-        <v>20115661.0437831</v>
+        <v>-4060279.055300761</v>
       </c>
       <c r="C80">
-        <v>192885069.6114713</v>
+        <v>31972969.32016289</v>
       </c>
       <c r="D80">
-        <v>-25613639.10537267</v>
+        <v>-13597703.78790373</v>
       </c>
       <c r="E80">
-        <v>238614369.7606271</v>
+        <v>41510394.05276586</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>106411616.9010646</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B81">
-        <v>19377351.55579595</v>
+        <v>-4082912.361986607</v>
       </c>
       <c r="C81">
-        <v>193445882.2463332</v>
+        <v>31995602.62684873</v>
       </c>
       <c r="D81">
-        <v>-26695805.44845173</v>
+        <v>-13632318.44341036</v>
       </c>
       <c r="E81">
-        <v>239519039.2505809</v>
+        <v>41545008.70827249</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>105813383.2784878</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B82">
-        <v>18130104.28450114</v>
+        <v>-4105517.306914579</v>
       </c>
       <c r="C82">
-        <v>193496662.2724744</v>
+        <v>32018207.57177671</v>
       </c>
       <c r="D82">
-        <v>-28286619.79205605</v>
+        <v>-13666889.72335142</v>
       </c>
       <c r="E82">
-        <v>239913386.3490316</v>
+        <v>41579579.98821354</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>106578396.1645936</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B83">
-        <v>18246624.8624506</v>
+        <v>-4128093.996438421</v>
       </c>
       <c r="C83">
-        <v>194910167.4667367</v>
+        <v>32040784.26130055</v>
       </c>
       <c r="D83">
-        <v>-28513390.30539358</v>
+        <v>-13701417.7903809</v>
       </c>
       <c r="E83">
-        <v>241670182.6345809</v>
+        <v>41614108.05524303</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>106706136.4605929</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B84">
-        <v>17726368.88825113</v>
+        <v>-4150642.536248848</v>
       </c>
       <c r="C84">
-        <v>195685904.0329347</v>
+        <v>32063332.80111098</v>
       </c>
       <c r="D84">
-        <v>-29376674.78424689</v>
+        <v>-13735902.80613884</v>
       </c>
       <c r="E84">
-        <v>242788947.7054327</v>
+        <v>41648593.07100096</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>98302060.44961479</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B85">
-        <v>8674768.082692295</v>
+        <v>-4173163.031379312</v>
       </c>
       <c r="C85">
-        <v>187929352.8165373</v>
+        <v>32085853.29624144</v>
       </c>
       <c r="D85">
-        <v>-38771054.51034361</v>
+        <v>-13770344.93126</v>
       </c>
       <c r="E85">
-        <v>235375175.4095732</v>
+        <v>41683035.19612213</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>105733437.6512263</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B86">
-        <v>14910306.28879553</v>
+        <v>-4195655.586211711</v>
       </c>
       <c r="C86">
-        <v>196556569.0136572</v>
+        <v>32108345.85107384</v>
       </c>
       <c r="D86">
-        <v>-33168555.22946471</v>
+        <v>-13804744.32538275</v>
       </c>
       <c r="E86">
-        <v>244635430.5319174</v>
+        <v>41717434.59024488</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>112840639.2349792</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B87">
-        <v>21374734.76154232</v>
+        <v>-4218120.304482032</v>
       </c>
       <c r="C87">
-        <v>204306543.7084161</v>
+        <v>32130810.56934416</v>
       </c>
       <c r="D87">
-        <v>-27044390.28791459</v>
+        <v>-13839101.14715758</v>
       </c>
       <c r="E87">
-        <v>252725668.757873</v>
+        <v>41751791.4120197</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>109296758.9415979</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B88">
-        <v>17188426.64350924</v>
+        <v>-4240557.289285921</v>
       </c>
       <c r="C88">
-        <v>201405091.2396865</v>
+        <v>32153247.55414805</v>
       </c>
       <c r="D88">
-        <v>-31570779.15358952</v>
+        <v>-13873415.55425567</v>
       </c>
       <c r="E88">
-        <v>250164297.0367853</v>
+        <v>41786105.8191178</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>110209017.9794141</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B89">
-        <v>17458582.62961112</v>
+        <v>-4262966.643084228</v>
       </c>
       <c r="C89">
-        <v>202959453.3292171</v>
+        <v>32175656.90794636</v>
       </c>
       <c r="D89">
-        <v>-31640531.9907216</v>
+        <v>-13907687.70337738</v>
       </c>
       <c r="E89">
-        <v>252058567.9495498</v>
+        <v>41820377.9682395</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>118783497.6801849</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B90">
-        <v>25391264.10586998</v>
+        <v>-4285348.46770845</v>
       </c>
       <c r="C90">
-        <v>212175731.2544998</v>
+        <v>32198038.73257058</v>
       </c>
       <c r="D90">
-        <v>-24047597.9719231</v>
+        <v>-13941917.75026052</v>
       </c>
       <c r="E90">
-        <v>261614593.3322929</v>
+        <v>41854608.01512265</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>122225834.4130847</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B91">
-        <v>28192088.0433571</v>
+        <v>-4307702.864366129</v>
       </c>
       <c r="C91">
-        <v>216259580.7828123</v>
+        <v>32220393.12922826</v>
       </c>
       <c r="D91">
-        <v>-21586370.3948583</v>
+        <v>-13976105.84968871</v>
       </c>
       <c r="E91">
-        <v>266038039.2210277</v>
+        <v>41888796.11455083</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>117467720.0917385</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B92">
-        <v>22792727.48605877</v>
+        <v>-4330029.933646202</v>
       </c>
       <c r="C92">
-        <v>212142712.6974181</v>
+        <v>32242720.19850833</v>
       </c>
       <c r="D92">
-        <v>-27325186.20452417</v>
+        <v>-14010252.15549941</v>
       </c>
       <c r="E92">
-        <v>262260626.3880011</v>
+        <v>41922942.42036153</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>117378971.6651758</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B93">
-        <v>22062981.02350003</v>
+        <v>-4352329.775524266</v>
       </c>
       <c r="C93">
-        <v>212694962.3068517</v>
+        <v>32265020.04038639</v>
       </c>
       <c r="D93">
-        <v>-28394256.53033043</v>
+        <v>-14044356.82059212</v>
       </c>
       <c r="E93">
-        <v>263152199.8606821</v>
+        <v>41957047.08545426</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>116780738.042599</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B94">
-        <v>20823979.69797398</v>
+        <v>-4374602.489367813</v>
       </c>
       <c r="C94">
-        <v>212737496.387224</v>
+        <v>32287292.75422994</v>
       </c>
       <c r="D94">
-        <v>-29972459.7881542</v>
+        <v>-14078419.99693631</v>
       </c>
       <c r="E94">
-        <v>263533935.8733522</v>
+        <v>41991110.26179844</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>117545750.9287049</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B95">
-        <v>20948437.82307749</v>
+        <v>-4396848.173941389</v>
       </c>
       <c r="C95">
-        <v>214143064.0343323</v>
+        <v>32309538.43880352</v>
       </c>
       <c r="D95">
-        <v>-30187090.87069097</v>
+        <v>-14112441.83557932</v>
       </c>
       <c r="E95">
-        <v>265278592.7281008</v>
+        <v>42025132.10044144</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>117673491.2247042</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B96">
-        <v>20435819.36865604</v>
+        <v>-4419066.927411713</v>
       </c>
       <c r="C96">
-        <v>214911163.0807523</v>
+        <v>32331757.19227384</v>
       </c>
       <c r="D96">
-        <v>-31038694.77101857</v>
+        <v>-14146422.48665417</v>
       </c>
       <c r="E96">
-        <v>266385677.2204269</v>
+        <v>42059112.7515163</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>109269415.213726</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B97">
-        <v>11391564.13081083</v>
+        <v>-4441258.847352721</v>
       </c>
       <c r="C97">
-        <v>207147266.2966413</v>
+        <v>32353949.11221485</v>
       </c>
       <c r="D97">
-        <v>-40421840.42074117</v>
+        <v>-14180362.09938734</v>
       </c>
       <c r="E97">
-        <v>258960670.8481933</v>
+        <v>42093052.36424947</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>116700792.4153376</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B98">
-        <v>17663213.36995369</v>
+        <v>-4463424.030750562</v>
       </c>
       <c r="C98">
-        <v>215738371.4607215</v>
+        <v>32376114.29561269</v>
       </c>
       <c r="D98">
-        <v>-34764114.08064351</v>
+        <v>-14214260.82210635</v>
       </c>
       <c r="E98">
-        <v>268165698.9113187</v>
+        <v>42126951.08696847</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>123807993.9990905</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B99">
-        <v>24133883.30574073</v>
+        <v>-4485562.574008569</v>
       </c>
       <c r="C99">
-        <v>223482104.6924402</v>
+        <v>32398252.8388707</v>
       </c>
       <c r="D99">
-        <v>-28630403.64510112</v>
+        <v>-14248118.80224735</v>
       </c>
       <c r="E99">
-        <v>276246391.643282</v>
+        <v>42160809.06710947</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>120264113.7057091</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B100">
-        <v>19953560.81770393</v>
+        <v>-4507674.572952114</v>
       </c>
       <c r="C100">
-        <v>220574666.5937143</v>
+        <v>32420364.83781424</v>
       </c>
       <c r="D100">
-        <v>-33147638.27966049</v>
+        <v>-14281936.18636261</v>
       </c>
       <c r="E100">
-        <v>273675865.6910788</v>
+        <v>42194626.45122473</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>121176372.7435253</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B101">
-        <v>20229453.16665538</v>
+        <v>-4529760.122833472</v>
       </c>
       <c r="C101">
-        <v>222123292.3203953</v>
+        <v>32442450.3876956</v>
       </c>
       <c r="D101">
-        <v>-33208618.10688044</v>
+        <v>-14315713.12012791</v>
       </c>
       <c r="E101">
-        <v>275561363.5939311</v>
+        <v>42228403.38499004</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>129750852.4442961</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B102">
-        <v>28167628.08651976</v>
+        <v>-4551819.318336595</v>
       </c>
       <c r="C102">
-        <v>231334076.8020725</v>
+        <v>32464509.58319872</v>
       </c>
       <c r="D102">
-        <v>-25607282.59109391</v>
+        <v>-14349449.74834987</v>
       </c>
       <c r="E102">
-        <v>285108987.4796862</v>
+        <v>42262140.013212</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>133193189.177196</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B103">
-        <v>30973708.6873498</v>
+        <v>-4573852.25358187</v>
       </c>
       <c r="C103">
-        <v>235412669.6670421</v>
+        <v>32486542.518444</v>
       </c>
       <c r="D103">
-        <v>-23138015.64120325</v>
+        <v>-14383146.21497319</v>
       </c>
       <c r="E103">
-        <v>289524393.9955952</v>
+        <v>42295836.47983532</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>128435074.8558497</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B104">
-        <v>25579373.95181079</v>
+        <v>-4595859.022130765</v>
       </c>
       <c r="C104">
-        <v>231290775.7598886</v>
+        <v>32508549.28699289</v>
       </c>
       <c r="D104">
-        <v>-28869145.11977966</v>
+        <v>-14416802.6630878</v>
       </c>
       <c r="E104">
-        <v>285739294.8314791</v>
+        <v>42329492.92794993</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>128346326.4292871</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B105">
-        <v>24854428.21599488</v>
+        <v>-4617839.716990512</v>
       </c>
       <c r="C105">
-        <v>231838224.6425793</v>
+        <v>32530529.98185264</v>
       </c>
       <c r="D105">
-        <v>-29930873.36761688</v>
+        <v>-14450419.23493597</v>
       </c>
       <c r="E105">
-        <v>286623526.226191</v>
+        <v>42363109.4997981</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>127748092.8067103</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B106">
-        <v>23620008.08443688</v>
+        <v>-4639794.430618647</v>
       </c>
       <c r="C106">
-        <v>231876177.5289837</v>
+        <v>32552484.69548078</v>
       </c>
       <c r="D106">
-        <v>-31502070.29387747</v>
+        <v>-14483996.07191931</v>
       </c>
       <c r="E106">
-        <v>286998255.907298</v>
+        <v>42396686.33678144</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>128513105.6928161</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B107">
-        <v>23748833.25605676</v>
+        <v>-4661723.254927587</v>
       </c>
       <c r="C107">
-        <v>233277378.1295755</v>
+        <v>32574413.51978971</v>
       </c>
       <c r="D107">
-        <v>-31710022.55511588</v>
+        <v>-14517533.31460573</v>
       </c>
       <c r="E107">
-        <v>288736233.9407482</v>
+        <v>42430223.57946786</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>128640845.9888154</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B108">
-        <v>23240372.91615248</v>
+        <v>-4683626.281289082</v>
       </c>
       <c r="C108">
-        <v>234041319.0614784</v>
+        <v>32596316.54615121</v>
       </c>
       <c r="D108">
-        <v>-32555267.16806373</v>
+        <v>-14551031.10273626</v>
       </c>
       <c r="E108">
-        <v>289836959.1456946</v>
+        <v>42463721.36759839</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>120236769.9778373</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B109">
-        <v>14200071.91311693</v>
+        <v>-4705503.600538693</v>
       </c>
       <c r="C109">
-        <v>226273468.0425577</v>
+        <v>32618193.86540082</v>
       </c>
       <c r="D109">
-        <v>-41932365.33751184</v>
+        <v>-14584489.57523191</v>
       </c>
       <c r="E109">
-        <v>282405905.2931864</v>
+        <v>42497179.84009403</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>127668147.1794488</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B110">
-        <v>20499659.98654544</v>
+        <v>-4727355.302980162</v>
       </c>
       <c r="C110">
-        <v>234836634.3723522</v>
+        <v>32640045.56784229</v>
       </c>
       <c r="D110">
-        <v>-36231910.23764974</v>
+        <v>-14617908.87020032</v>
       </c>
       <c r="E110">
-        <v>291568204.5965474</v>
+        <v>42530599.13506244</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>134775348.7632017</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B111">
-        <v>26973479.49228594</v>
+        <v>-4749181.478389774</v>
       </c>
       <c r="C111">
-        <v>242577218.0341175</v>
+        <v>32661871.7432519</v>
       </c>
       <c r="D111">
-        <v>-30093382.95053342</v>
+        <v>-14651289.12494247</v>
       </c>
       <c r="E111">
-        <v>299644080.4769368</v>
+        <v>42563979.3898046</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>131231468.4698204</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B112">
-        <v>22796126.07555115</v>
+        <v>-4770982.21602064</v>
       </c>
       <c r="C112">
-        <v>239666810.8640896</v>
+        <v>32683672.48088277</v>
       </c>
       <c r="D112">
-        <v>-34606076.78238463</v>
+        <v>-14684630.47595924</v>
       </c>
       <c r="E112">
-        <v>297069013.7220254</v>
+        <v>42597320.74082137</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>132143727.5076366</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B113">
-        <v>23074811.18809687</v>
+        <v>-4792757.604606993</v>
       </c>
       <c r="C113">
-        <v>241212643.8271763</v>
+        <v>32705447.86946912</v>
       </c>
       <c r="D113">
-        <v>-34662785.4462669</v>
+        <v>-14717933.0589579</v>
       </c>
       <c r="E113">
-        <v>298950240.4615401</v>
+        <v>42630623.32382003</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>140718207.2084074</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B114">
-        <v>31015606.63075647</v>
+        <v>-4814507.732368357</v>
       </c>
       <c r="C114">
-        <v>250420807.7860583</v>
+        <v>32727197.99723049</v>
       </c>
       <c r="D114">
-        <v>-27057442.18671307</v>
+        <v>-14751197.00885859</v>
       </c>
       <c r="E114">
-        <v>308493856.6035278</v>
+        <v>42663887.27372071</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>144160543.9413072</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B115">
-        <v>33824139.46104568</v>
+        <v>-4836232.687013756</v>
       </c>
       <c r="C115">
-        <v>254496948.4215688</v>
+        <v>32748922.95187588</v>
       </c>
       <c r="D115">
-        <v>-24584424.87550178</v>
+        <v>-14784422.45980066</v>
       </c>
       <c r="E115">
-        <v>312905512.7581163</v>
+        <v>42697112.7246628</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>139402429.6199609</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B116">
-        <v>28432092.49403131</v>
+        <v>-4857932.55574581</v>
       </c>
       <c r="C116">
-        <v>250372766.7458906</v>
+        <v>32770622.82060794</v>
       </c>
       <c r="D116">
-        <v>-30312055.51405191</v>
+        <v>-14817609.54514904</v>
       </c>
       <c r="E116">
-        <v>309116914.7539738</v>
+        <v>42730299.81001117</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>139313681.1933984</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B117">
-        <v>27709273.78733623</v>
+        <v>-4879607.425264839</v>
       </c>
       <c r="C117">
-        <v>250918088.5994605</v>
+        <v>32792297.69012697</v>
       </c>
       <c r="D117">
-        <v>-31370530.75156716</v>
+        <v>-14850758.39750041</v>
       </c>
       <c r="E117">
-        <v>309997893.1383638</v>
+        <v>42763448.66236254</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>138715447.5708215</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B118">
-        <v>26476823.56016159</v>
+        <v>-4901257.381772898</v>
       </c>
       <c r="C118">
-        <v>250954071.5814814</v>
+        <v>32813947.64663503</v>
       </c>
       <c r="D118">
-        <v>-32938714.96905488</v>
+        <v>-14883869.14868944</v>
       </c>
       <c r="E118">
-        <v>310369610.1106979</v>
+        <v>42796559.41355157</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>139480460.4569274</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B119">
-        <v>26607465.02306229</v>
+        <v>-4922882.510977775</v>
       </c>
       <c r="C119">
-        <v>252353455.8907925</v>
+        <v>32835572.7758399</v>
       </c>
       <c r="D119">
-        <v>-33143889.45248741</v>
+        <v>-14916941.92979487</v>
       </c>
       <c r="E119">
-        <v>312104810.3663422</v>
+        <v>42829632.194657</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>139608200.7529267</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B120">
-        <v>26100670.77360606</v>
+        <v>-4944482.898096941</v>
       </c>
       <c r="C120">
-        <v>253115730.7322473</v>
+        <v>32857173.16295907</v>
       </c>
       <c r="D120">
-        <v>-33986585.99998009</v>
+        <v>-14949976.87114559</v>
       </c>
       <c r="E120">
-        <v>313202987.5058335</v>
+        <v>42862667.13600772</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>131204124.7419485</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B121">
-        <v>17061888.97660053</v>
+        <v>-4966058.627861492</v>
       </c>
       <c r="C121">
-        <v>245346360.5072966</v>
+        <v>32878748.89272362</v>
       </c>
       <c r="D121">
-        <v>-43361360.74430516</v>
+        <v>-14982974.10232662</v>
       </c>
       <c r="E121">
-        <v>305769610.2282022</v>
+        <v>42895664.36718875</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>138635501.9435601</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B122">
-        <v>23383410.51125544</v>
+        <v>-4987609.784520008</v>
       </c>
       <c r="C122">
-        <v>253887593.3758647</v>
+        <v>32900300.04938214</v>
       </c>
       <c r="D122">
-        <v>-37627361.31020331</v>
+        <v>-15015933.75218505</v>
       </c>
       <c r="E122">
-        <v>314898365.1973235</v>
+        <v>42928624.01704718</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>145742703.527313</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B123">
-        <v>29858143.09999465</v>
+        <v>-5009136.451842386</v>
       </c>
       <c r="C123">
-        <v>261627263.9546313</v>
+        <v>32921826.71670451</v>
       </c>
       <c r="D123">
-        <v>-31487437.58314616</v>
+        <v>-15048855.94883588</v>
       </c>
       <c r="E123">
-        <v>322972844.6377721</v>
+        <v>42961546.21369801</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>142198823.2339316</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B124">
-        <v>25681571.74712864</v>
+        <v>-5030638.713123661</v>
       </c>
       <c r="C124">
-        <v>258716074.7207346</v>
+        <v>32943328.97798579</v>
       </c>
       <c r="D124">
-        <v>-35998935.35152429</v>
+        <v>-15081740.81966787</v>
       </c>
       <c r="E124">
-        <v>320396581.8193876</v>
+        <v>42994431.08453</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>143111082.2717479</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B125">
-        <v>25960910.69839691</v>
+        <v>-5052116.651187748</v>
       </c>
       <c r="C125">
-        <v>260261253.8450988</v>
+        <v>32964806.91604988</v>
       </c>
       <c r="D125">
-        <v>-36054644.05537191</v>
+        <v>-15114588.49134927</v>
       </c>
       <c r="E125">
-        <v>322276808.5988677</v>
+        <v>43027278.7562114</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>151685561.9725186</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B126">
-        <v>33902234.47393036</v>
+        <v>-5073570.348391168</v>
       </c>
       <c r="C126">
-        <v>269468889.4711069</v>
+        <v>32986260.6132533</v>
       </c>
       <c r="D126">
-        <v>-28448492.78041515</v>
+        <v>-15147399.08983351</v>
       </c>
       <c r="E126">
-        <v>331819616.7254524</v>
+        <v>43060089.35469563</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>155127898.7054185</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B127">
-        <v>36711172.77834255</v>
+        <v>-5094999.886626732</v>
       </c>
       <c r="C127">
-        <v>273544624.6324944</v>
+        <v>33007690.15148886</v>
       </c>
       <c r="D127">
-        <v>-25974855.35004592</v>
+        <v>-15180172.74036483</v>
       </c>
       <c r="E127">
-        <v>336230652.7608829</v>
+        <v>43092863.00522695</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>150369784.3840722</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B128">
-        <v>31319411.00398552</v>
+        <v>-5116405.347327199</v>
       </c>
       <c r="C128">
-        <v>269420157.7641588</v>
+        <v>33029095.61218933</v>
       </c>
       <c r="D128">
-        <v>-31702049.82406545</v>
+        <v>-15212909.5674839</v>
       </c>
       <c r="E128">
-        <v>332441618.5922098</v>
+        <v>43125599.83234602</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>150281035.9575096</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B129">
-        <v>30596759.71824718</v>
+        <v>-5137786.811468869</v>
       </c>
       <c r="C129">
-        <v>269965312.196772</v>
+        <v>33050477.076331</v>
       </c>
       <c r="D129">
-        <v>-32760269.01332301</v>
+        <v>-15245609.69503327</v>
       </c>
       <c r="E129">
-        <v>333322340.9283422</v>
+        <v>43158299.9598954</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>149682802.3349327</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B130">
-        <v>29364361.5847749</v>
+        <v>-5159144.359575164</v>
       </c>
       <c r="C130">
-        <v>270001243.0850905</v>
+        <v>33071834.62443729</v>
       </c>
       <c r="D130">
-        <v>-34328373.56036812</v>
+        <v>-15278273.2461629</v>
       </c>
       <c r="E130">
-        <v>333693978.2302336</v>
+        <v>43190963.51102503</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>150447815.2210386</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B131">
-        <v>29494942.19536614</v>
+        <v>-5180478.071720175</v>
       </c>
       <c r="C131">
-        <v>271400688.2467111</v>
+        <v>33093168.3365823</v>
       </c>
       <c r="D131">
-        <v>-34533641.10937691</v>
+        <v>-15310900.34333554</v>
       </c>
       <c r="E131">
-        <v>335429271.5514542</v>
+        <v>43223590.60819766</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>150575555.5170379</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B132">
-        <v>28987976.46766044</v>
+        <v>-5201788.027532149</v>
       </c>
       <c r="C132">
-        <v>272163134.5664154</v>
+        <v>33114478.29239428</v>
       </c>
       <c r="D132">
-        <v>-35376599.91022101</v>
+        <v>-15343491.10833208</v>
       </c>
       <c r="E132">
-        <v>336527710.9442968</v>
+        <v>43256181.3731942</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>142171479.5060598</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B133">
-        <v>19948914.82732034</v>
+        <v>-5223074.306196969</v>
       </c>
       <c r="C133">
-        <v>264394044.1847993</v>
+        <v>33135764.5710591</v>
       </c>
       <c r="D133">
-        <v>-44751802.63799349</v>
+        <v>-15376045.66225687</v>
       </c>
       <c r="E133">
-        <v>329094761.6501131</v>
+        <v>43288735.92711899</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>149602856.7076713</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B134">
-        <v>26287823.16758114</v>
+        <v>-5244336.986461576</v>
       </c>
       <c r="C134">
-        <v>272917890.2477615</v>
+        <v>33157027.2513237</v>
       </c>
       <c r="D134">
-        <v>-38991212.37937087</v>
+        <v>-15408564.12554298</v>
       </c>
       <c r="E134">
-        <v>338196925.7947135</v>
+        <v>43321254.3904051</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>156710058.2914242</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B135">
-        <v>32761807.15085305</v>
+        <v>-5265576.14663738</v>
       </c>
       <c r="C135">
-        <v>280658309.4319954</v>
+        <v>33178266.41149951</v>
       </c>
       <c r="D135">
-        <v>-32852433.54557747</v>
+        <v>-15441046.61795737</v>
       </c>
       <c r="E135">
-        <v>346272550.1284259</v>
+        <v>43353736.8828195</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>153166177.9980429</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B136">
-        <v>28584390.00623709</v>
+        <v>-5286791.86460362</v>
       </c>
       <c r="C136">
-        <v>277747965.9898487</v>
+        <v>33199482.12946575</v>
       </c>
       <c r="D136">
-        <v>-37365224.84081233</v>
+        <v>-15473493.25860606</v>
       </c>
       <c r="E136">
-        <v>343697580.8368981</v>
+        <v>43386183.52346818</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>154078437.0358591</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B137">
-        <v>28862787.90761352</v>
+        <v>-5307984.217810687</v>
       </c>
       <c r="C137">
-        <v>279294086.1641047</v>
+        <v>33220674.48267281</v>
       </c>
       <c r="D137">
-        <v>-37422372.75627285</v>
+        <v>-15505904.1659392</v>
       </c>
       <c r="E137">
-        <v>345579246.8279911</v>
+        <v>43418594.43080132</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>162652916.7366298</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B138">
-        <v>36803077.25619572</v>
+        <v>-5329153.283283435</v>
       </c>
       <c r="C138">
-        <v>288502756.217064</v>
+        <v>33241843.54814556</v>
       </c>
       <c r="D138">
-        <v>-29817803.50081772</v>
+        <v>-15538279.45775613</v>
       </c>
       <c r="E138">
-        <v>355123636.9740774</v>
+        <v>43450969.72261826</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>166095253.4695297</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B139">
-        <v>39610889.59204675</v>
+        <v>-5350299.137624446</v>
       </c>
       <c r="C139">
-        <v>292579617.3470127</v>
+        <v>33262989.40248657</v>
       </c>
       <c r="D139">
-        <v>-27345888.09076119</v>
+        <v>-15570619.2512104</v>
       </c>
       <c r="E139">
-        <v>359536395.0298206</v>
+        <v>43483309.51607253</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>161337139.1481834</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B140">
-        <v>34217912.09870726</v>
+        <v>-5371421.857017249</v>
       </c>
       <c r="C140">
-        <v>288456366.1976596</v>
+        <v>33284112.12187938</v>
       </c>
       <c r="D140">
-        <v>-33074941.8465178</v>
+        <v>-15602923.66281467</v>
       </c>
       <c r="E140">
-        <v>355749220.1428847</v>
+        <v>43515613.9276768</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>161248390.7216209</v>
+        <v>13956345.13243106</v>
       </c>
       <c r="B141">
-        <v>33493957.09181596</v>
+        <v>-5392521.51722955</v>
       </c>
       <c r="C141">
-        <v>289002824.3514258</v>
+        <v>33305211.78209168</v>
       </c>
       <c r="D141">
-        <v>-34135154.90521798</v>
+        <v>-15635192.80844563</v>
       </c>
       <c r="E141">
-        <v>356631936.3484597</v>
+        <v>43547883.07330775</v>
       </c>
     </row>
   </sheetData>
